--- a/4-Tools/电赛.xlsx
+++ b/4-Tools/电赛.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e23042d8996ddfe4/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Program\25-NUEDC-C\4-Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_AD4DA82427541F7ACA7EB8A5188801206BE8DE15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A4AE44-DA02-4394-9E3A-87696112F964}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F0296D-73E1-486F-8459-AAAEBA396786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,19 +245,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3191,10 +3190,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3460,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q58"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3519,48 +3514,48 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>0.99992310929668993</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>0.99984622450556004</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>-1.4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>5.4757453711261164</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3570,258 +3565,220 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13">
         <v>7</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>974770.93820601003</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>139252.99117228715</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>32509.933658364935</v>
       </c>
-      <c r="N13" s="3" t="e">
+      <c r="N13" t="e">
         <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>149.91893684704547</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>29.983787369409093</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>12</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>974920.85714285704</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3">
+      <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3">
+      <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3">
+      <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3">
+      <c r="P21">
         <v>3.1173063557480956E-82</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21">
         <v>-3.1173063557480956E-82</v>
       </c>
     </row>
     <row r="22" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3">
+      <c r="P22">
         <v>-2.6147712564847256E+279</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22">
         <v>2.6147712564847256E+279</v>
       </c>
     </row>
     <row r="23" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3">
+      <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I24" s="3" t="s">
+      <c r="I24" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>-28.036919719794696</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>6.9336490683507446</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>-4.0436023576346978</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24">
         <v>9.8875319130975105E-3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <v>-45.860432069573775</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24">
         <v>-10.213407370015613</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24">
         <v>-45.860432069573775</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <v>-10.213407370015613</v>
       </c>
     </row>
     <row r="25" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="2">
         <v>0.84984314591356969</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <v>4.7133613311577654E-3</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="2">
         <v>180.30511267949379</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="2">
         <v>9.9568172034607934E-11</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="2">
         <v>0.83772706489090498</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <v>0.86195922693623439</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="2">
         <v>0.83772706489090498</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="2">
         <v>0.86195922693623439</v>
       </c>
     </row>
@@ -3832,48 +3789,48 @@
     </row>
     <row r="29" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I31" s="3" t="s">
+      <c r="I31" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31">
         <v>0.99992310929668993</v>
       </c>
     </row>
     <row r="32" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I32" s="3" t="s">
+      <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>0.99984622450556004</v>
       </c>
     </row>
     <row r="33" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I33" s="3" t="s">
+      <c r="I33" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33">
         <v>-1.4</v>
       </c>
     </row>
     <row r="34" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>5.4757453711261164</v>
       </c>
     </row>
     <row r="35" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3883,258 +3840,220 @@
       </c>
     </row>
     <row r="38" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I39" s="3" t="s">
+      <c r="I39" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39">
         <v>7</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39">
         <v>974770.93820601003</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39">
         <v>139252.99117228715</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39">
         <v>32509.933658364935</v>
       </c>
-      <c r="N39" s="3" t="e">
+      <c r="N39" t="e">
         <v>#NUM!</v>
       </c>
     </row>
     <row r="40" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
         <v>149.91893684704547</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <v>29.983787369409093</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="2">
         <v>12</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="2">
         <v>974920.85714285704</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3">
+      <c r="P44">
         <v>0</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3">
+      <c r="P45">
         <v>-7.21961108014932E-154</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45">
         <v>7.21961108014932E-154</v>
       </c>
     </row>
     <row r="46" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
         <v>32</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3">
+      <c r="P46">
         <v>-1.1695133673645823E-307</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46">
         <v>1.1695133673645823E-307</v>
       </c>
     </row>
     <row r="47" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3">
+      <c r="P47">
         <v>6.8533984129911704E+16</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47">
         <v>6.8533984129911704E+16</v>
       </c>
     </row>
     <row r="48" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I48" s="3" t="s">
+      <c r="I48" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3">
+      <c r="P48">
         <v>2.7318493321601264E+161</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48">
         <v>2.7318493321601264E+161</v>
       </c>
     </row>
     <row r="49" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I49" s="3" t="s">
+      <c r="I49" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3">
+      <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I50" s="3" t="s">
+      <c r="I50" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>-28.036919719794696</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50">
         <v>6.9336490683507446</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50">
         <v>-4.0436023576346978</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50">
         <v>9.8875319130975105E-3</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50">
         <v>-45.860432069573775</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50">
         <v>-10.213407370015613</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50">
         <v>-45.860432069573775</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q50">
         <v>-10.213407370015613</v>
       </c>
     </row>
     <row r="51" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="2">
         <v>0.84984314591356969</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="2">
         <v>4.7133613311577654E-3</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="2">
         <v>180.30511267949379</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="2">
         <v>9.9568172034607934E-11</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="2">
         <v>0.83772706489090498</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="2">
         <v>0.86195922693623439</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="2">
         <v>0.83772706489090498</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="2">
         <v>0.86195922693623439</v>
       </c>
     </row>
@@ -4145,24 +4064,24 @@
     </row>
     <row r="56" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I58" s="4">
+      <c r="I58" s="2">
         <v>1</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="2">
         <v>-47313.932629058763</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="2">
         <v>47948.932629058763</v>
       </c>
     </row>
@@ -4178,7 +4097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D31B5-9C0E-44E6-ABE4-56DC4F69D17E}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
@@ -4188,10 +4107,10 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="5"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
